--- a/blackList.xlsx
+++ b/blackList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\whiteBalck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\MainlandTrunksensitiveResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A3D49F-A389-4E51-A4DD-BE36F8C02A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1631FE9-A15B-46E8-9034-FF37C33FC1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="32565" windowHeight="10335" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
+    <workbookView xWindow="4170" yWindow="9930" windowWidth="32565" windowHeight="10335" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
   </bookViews>
   <sheets>
     <sheet name="blacklist" sheetId="1" r:id="rId1"/>

--- a/blackList.xlsx
+++ b/blackList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\MainlandTrunksensitiveResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1631FE9-A15B-46E8-9034-FF37C33FC1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B5C358-FF1C-463F-9146-2AFD44AC049C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="9930" windowWidth="32565" windowHeight="10335" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
+    <workbookView xWindow="10650" yWindow="6720" windowWidth="32565" windowHeight="11790" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
   </bookViews>
   <sheets>
     <sheet name="blacklist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>杀</t>
   </si>
@@ -165,61 +165,74 @@
   </si>
   <si>
     <t>京剧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">亿奥斯宝石 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>羁绊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>击倒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>参赛证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大师</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得集结能量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>集结能量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>blackList</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亿奥斯宝石 </t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>获得集结能量</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>击败</t>
+  </si>
+  <si>
+    <t>击倒</t>
+  </si>
+  <si>
+    <t>参赛证</t>
+  </si>
+  <si>
+    <t>大师</t>
+  </si>
+  <si>
+    <t>集结能量</t>
+  </si>
+  <si>
+    <t>初代御三家</t>
+  </si>
+  <si>
+    <t>御三家</t>
+  </si>
+  <si>
+    <t>婕拉奥拉</t>
+  </si>
+  <si>
+    <t>烈空座</t>
+  </si>
+  <si>
+    <t>裂空坐</t>
+  </si>
+  <si>
+    <t>裂空座</t>
+  </si>
+  <si>
+    <t>皮卡皮卡</t>
+  </si>
+  <si>
+    <t>皮卡</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +267,18 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,7 +302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -292,6 +317,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,9 +638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5341E3F-9211-41F1-868D-02A1EBBE401B}">
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -618,7 +651,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -698,7 +731,7 @@
     </row>
     <row r="17" spans="1:1" ht="16.5">
       <c r="A17" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15">
@@ -823,12 +856,12 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -853,42 +886,82 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/blackList.xlsx
+++ b/blackList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\MainlandTrunksensitiveResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B5C358-FF1C-463F-9146-2AFD44AC049C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F158464-2F73-46B2-8175-78AA4712B872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10650" yWindow="6720" windowWidth="32565" windowHeight="11790" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
+    <workbookView xWindow="5640" yWindow="8655" windowWidth="32565" windowHeight="11790" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
   </bookViews>
   <sheets>
     <sheet name="blacklist" sheetId="1" r:id="rId1"/>

--- a/blackList.xlsx
+++ b/blackList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\MainlandTrunksensitiveResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F158464-2F73-46B2-8175-78AA4712B872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D19641-EAAF-4CEF-9373-397AF54582D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="8655" windowWidth="32565" windowHeight="11790" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
+    <workbookView xWindow="4590" yWindow="4665" windowWidth="31890" windowHeight="14655" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
   </bookViews>
   <sheets>
     <sheet name="blacklist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>杀</t>
   </si>
@@ -222,17 +222,23 @@
     <t>裂空座</t>
   </si>
   <si>
-    <t>皮卡皮卡</t>
-  </si>
-  <si>
-    <t>皮卡</t>
+    <t>解锁招式</t>
+  </si>
+  <si>
+    <t>NX</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Switch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +285,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +335,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -638,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5341E3F-9211-41F1-868D-02A1EBBE401B}">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A63"/>
+      <selection activeCell="A2" sqref="A2:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -954,14 +966,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="62" spans="1:1" ht="15">
+      <c r="A62" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="63" spans="1:1" ht="15">
+      <c r="A63" s="7" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/blackList.xlsx
+++ b/blackList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\MainlandTrunksensitiveResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D19641-EAAF-4CEF-9373-397AF54582D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17391FEB-ECFD-4F4D-84ED-5E30BA6CEFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="4665" windowWidth="31890" windowHeight="14655" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
   </bookViews>
   <sheets>
     <sheet name="blacklist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>杀</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>Switch</t>
+  </si>
+  <si>
+    <t>释放</t>
+  </si>
+  <si>
+    <t>摇杆</t>
   </si>
 </sst>
 </file>
@@ -276,19 +282,16 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -650,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5341E3F-9211-41F1-868D-02A1EBBE401B}">
-  <dimension ref="A1:A65"/>
+  <dimension ref="A1:A67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A65"/>
+      <selection activeCell="A2" sqref="A2:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -986,6 +989,16 @@
         <v>64</v>
       </c>
     </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/blackList.xlsx
+++ b/blackList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\MainlandTrunksensitiveResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MainlandTrunksensitiveResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17391FEB-ECFD-4F4D-84ED-5E30BA6CEFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6BE2E3-74F6-4BBC-9295-CCE629E940F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{B7C19D78-8B9D-477E-BDF0-EF0C1A5AD11C}"/>
   </bookViews>
   <sheets>
     <sheet name="blacklist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>杀</t>
   </si>
@@ -238,6 +238,24 @@
   </si>
   <si>
     <t>摇杆</t>
+  </si>
+  <si>
+    <t>生还</t>
+  </si>
+  <si>
+    <t>生存</t>
+  </si>
+  <si>
+    <t>存活</t>
+  </si>
+  <si>
+    <t>武道雄师</t>
+  </si>
+  <si>
+    <t>武道熊狮</t>
+  </si>
+  <si>
+    <t>武道雄狮</t>
   </si>
 </sst>
 </file>
@@ -282,16 +300,19 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -653,15 +674,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5341E3F-9211-41F1-868D-02A1EBBE401B}">
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A67"/>
+      <selection activeCell="A2" sqref="A2:A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -679,67 +700,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15">
+    <row r="4" spans="1:1" ht="14.5">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15">
+    <row r="5" spans="1:1" ht="14.5">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15">
+    <row r="6" spans="1:1" ht="14.5">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15">
+    <row r="7" spans="1:1" ht="14.5">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15">
+    <row r="8" spans="1:1" ht="14.5">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15">
+    <row r="9" spans="1:1" ht="14.5">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15">
+    <row r="10" spans="1:1" ht="14.5">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15">
+    <row r="11" spans="1:1" ht="14.5">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15">
+    <row r="12" spans="1:1" ht="14.5">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15">
+    <row r="13" spans="1:1" ht="14.5">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15">
+    <row r="14" spans="1:1" ht="14.5">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15">
+    <row r="15" spans="1:1" ht="14.5">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15">
+    <row r="16" spans="1:1" ht="14.5">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -749,107 +770,107 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15">
+    <row r="18" spans="1:1" ht="14.5">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15">
+    <row r="19" spans="1:1" ht="14.5">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15">
+    <row r="20" spans="1:1" ht="14.5">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15">
+    <row r="21" spans="1:1" ht="14.5">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15">
+    <row r="22" spans="1:1" ht="14.5">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15">
+    <row r="23" spans="1:1" ht="14.5">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15">
+    <row r="24" spans="1:1" ht="14.5">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15">
+    <row r="25" spans="1:1" ht="14.5">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15">
+    <row r="26" spans="1:1" ht="14.5">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15">
+    <row r="27" spans="1:1" ht="14.5">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15">
+    <row r="28" spans="1:1" ht="14.5">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15">
+    <row r="29" spans="1:1" ht="14.5">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15">
+    <row r="30" spans="1:1" ht="14.5">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15">
+    <row r="31" spans="1:1" ht="14.5">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15">
+    <row r="32" spans="1:1" ht="14.5">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15">
+    <row r="33" spans="1:1" ht="14.5">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15">
+    <row r="34" spans="1:1" ht="14.5">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15">
+    <row r="35" spans="1:1" ht="14.5">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15">
+    <row r="36" spans="1:1" ht="14.5">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15">
+    <row r="37" spans="1:1" ht="14.5">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15">
+    <row r="38" spans="1:1" ht="14.5">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
@@ -969,12 +990,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15">
+    <row r="62" spans="1:1" ht="14.5">
       <c r="A62" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15">
+    <row r="63" spans="1:1" ht="14.5">
       <c r="A63" s="7" t="s">
         <v>62</v>
       </c>
@@ -997,6 +1018,36 @@
     <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
